--- a/analysis/ASVS-checklist-en.xlsx
+++ b/analysis/ASVS-checklist-en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\UA\2023_2024\SIO\project_sio_2\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://othr-my.sharepoint.com/personal/stj36404_othr_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF152C69-F21B-428F-872F-611C350464F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{52B4D08E-91F4-4FBC-A1E6-B337BF63DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBA9C858-3944-40FA-8067-053F9E09585C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Session Management" sheetId="4" r:id="rId4"/>
     <sheet name="Access Control" sheetId="5" r:id="rId5"/>
     <sheet name="Input Validation" sheetId="6" r:id="rId6"/>
-    <sheet name="Cryptography at Rest" sheetId="7" r:id="rId7"/>
-    <sheet name="Error Handling and Logging" sheetId="8" r:id="rId8"/>
+    <sheet name="Error Handling and Logging" sheetId="8" r:id="rId7"/>
+    <sheet name="Cryptography at Rest" sheetId="7" r:id="rId8"/>
     <sheet name="Data Protection" sheetId="9" r:id="rId9"/>
     <sheet name="Communication Security" sheetId="10" r:id="rId10"/>
     <sheet name="Malicious Code" sheetId="12" r:id="rId11"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="737">
   <si>
     <t>Security Category</t>
   </si>
@@ -758,10 +758,6 @@
     <t>Verify that passwords are stored with sufficient protection to prevent offline recovery attacks, including local system access.</t>
   </si>
   <si>
-    <t>Password Security Credentials</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>General Authenticator Requirements</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -897,14 +893,6 @@
     <t>Fundamental Session Management Requirements</t>
   </si>
   <si>
-    <t>Session Binding Requirements</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Session Logout and Timeout Requirements</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Cookie-based Session Management</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1334,14 +1322,6 @@
   </si>
   <si>
     <t>General Data Protection</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Client-side Data Protection</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Sensitive Private Data</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2184,27 +2164,182 @@
     <t>Not Applicable</t>
   </si>
   <si>
+    <t>User is not required to be logged in
+to complete a purchase</t>
+  </si>
+  <si>
+    <t>Same payment can be done multiple times in a row</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Payment requests can
+ be spammed</t>
+  </si>
+  <si>
+    <t>Information is not logged</t>
+  </si>
+  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>Information is not logged</t>
-  </si>
-  <si>
-    <t>User is not required to be logged in 
-to complete a purchase</t>
-  </si>
-  <si>
-    <t>Same payment can be done multiple times in a row</t>
-  </si>
-  <si>
-    <t>Payment requests can be spammed</t>
+    <t>app/php/registration.php</t>
+  </si>
+  <si>
+    <t>app/php/registration.php (l. 47 - 54)</t>
+  </si>
+  <si>
+    <t>Updated in this project (see analysis/analysis_jsturm.docx)</t>
+  </si>
+  <si>
+    <t>app/php/reset_password.php</t>
+  </si>
+  <si>
+    <t>app/php/reset_password.php (l. 21 - 38)</t>
+  </si>
+  <si>
+    <t>app/php/registration.php; app/php/reset_password.php;</t>
+  </si>
+  <si>
+    <t>app/php/registration.php; app/php/reset_password.php; app/php/login.php;</t>
+  </si>
+  <si>
+    <t>app/php/login.php;</t>
+  </si>
+  <si>
+    <t>app/php/login.php (l. 53);</t>
+  </si>
+  <si>
+    <t>There are no initial passwords in general</t>
+  </si>
+  <si>
+    <t>secure_app/php/reset_password.php;</t>
+  </si>
+  <si>
+    <t>app/php/logout.php;</t>
+  </si>
+  <si>
+    <t>Done in app_sec/php/login.php;</t>
+  </si>
+  <si>
+    <t>Done in app_sec</t>
+  </si>
+  <si>
+    <t>app_sec/cart/checkout.php</t>
+  </si>
+  <si>
+    <t>Checkout does not force a user to be logged in</t>
+  </si>
+  <si>
+    <t>Every user gets only the basic rights</t>
+  </si>
+  <si>
+    <t>app/php/registration.php:79</t>
+  </si>
+  <si>
+    <t>Updated in app_sec (app_sec/cart/cart.php:16)</t>
+  </si>
+  <si>
+    <t>For example: Not using samesite cookies</t>
+  </si>
+  <si>
+    <t>No use of multi factor</t>
+  </si>
+  <si>
+    <t>No explicit measure to prevent http parameter</t>
+  </si>
+  <si>
+    <t>For example: app/php/registration.php</t>
+  </si>
+  <si>
+    <t>No explicit measure to protect agains mass parameter assignment attacks</t>
+  </si>
+  <si>
+    <t>For example: app/products/products.html:12</t>
+  </si>
+  <si>
+    <t>for example app_sec/php/registration.php:21; Use of prepared statements</t>
+  </si>
+  <si>
+    <t>‎app_sec/php/registration.php:174</t>
+  </si>
+  <si>
+    <t>snyk</t>
+  </si>
+  <si>
+    <t>Unsanitized input from an HTTP parameter flows into the echo statement, where it is used to render an HTML page returned to the user. This may result in a Cross-Site Scripting attack (XSS).</t>
+  </si>
+  <si>
+    <t>No user inputs get displayed. All outputs are only from the application itself.</t>
+  </si>
+  <si>
+    <t>&lt;meta charset="UTF-8"&gt;</t>
+  </si>
+  <si>
+    <t>Application is written in UTF-8 charset</t>
+  </si>
+  <si>
+    <t>‎app_sec/php/registration.php: if($stmt = mysqli_prepare($db, $sql)){
+            // Bind variables to the prepared statement as parameters
+            mysqli_stmt_bind_param($stmt, "s", $param_username);</t>
+  </si>
+  <si>
+    <t>User information encrypted in the database. Access to database only with prepared statements</t>
+  </si>
+  <si>
+    <t>No usage of xml or xPath</t>
+  </si>
+  <si>
+    <t>Only products and the cart are serizalized. Cart is checked and the products can´t be changed from outside.</t>
+  </si>
+  <si>
+    <t>No xml parsers used</t>
+  </si>
+  <si>
+    <t>No json used</t>
+  </si>
+  <si>
+    <t>Password Security Credentials</t>
+  </si>
+  <si>
+    <t>Session Logout and Timeout Requirements</t>
+  </si>
+  <si>
+    <t>Session Binding Requirements</t>
+  </si>
+  <si>
+    <t>Updated in this project 
+(see analysis/analysis_Georgi.docx)</t>
+  </si>
+  <si>
+    <t>Client-side Data Protection</t>
+  </si>
+  <si>
+    <t>Sensitive Private Data</t>
+  </si>
+  <si>
+    <t>app_sec/php/logout.php</t>
+  </si>
+  <si>
+    <t>Created a new functionality</t>
+  </si>
+  <si>
+    <t>app_sec/delete_data</t>
+  </si>
+  <si>
+    <t>app_sec/privacy_policy</t>
+  </si>
+  <si>
+    <t>"Updated in this project 
+(see analysis/analysis_Georgi.docx)"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2304,8 +2439,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF102A43"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF102A43"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,8 +2518,14 @@
         <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2985,13 +3143,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBCCCDC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBCCCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBCCCDC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF243B53"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBCCCDC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF243B53"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3213,7 +3408,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3308,6 +3502,35 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3317,29 +3540,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3437,7 +3652,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3457,7 +3672,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3544,16 +3759,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>38.095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3562,13 +3777,13 @@
                   <c:v>15.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>21.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>44.444444444444443</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3580,10 +3795,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>28.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70671378091872794</c:v>
+                  <c:v>15.11627906976744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,7 +3839,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1361787184"/>
@@ -3653,7 +3868,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1361412624"/>
@@ -3671,7 +3886,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3726,6 +3941,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4056,7 +4275,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" style="5" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" style="28"/>
@@ -4101,7 +4320,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="136" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4113,7 +4332,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="13"/>
@@ -4121,7 +4340,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="122"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
@@ -4141,7 +4360,7 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
@@ -4161,7 +4380,7 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="122"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
@@ -4181,7 +4400,7 @@
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="122"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
@@ -4193,7 +4412,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="20"/>
@@ -4201,7 +4420,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -4213,7 +4432,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="20"/>
@@ -4221,7 +4440,7 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
@@ -4241,7 +4460,7 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="136" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4255,7 +4474,7 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20"/>
@@ -4263,7 +4482,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="122"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4494,7 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="20"/>
@@ -4283,7 +4502,7 @@
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
@@ -4303,7 +4522,7 @@
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="122"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
@@ -4323,7 +4542,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="136" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4345,7 +4564,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="122"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
@@ -4365,7 +4584,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="122"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="8" t="s">
         <v>79</v>
       </c>
@@ -4385,7 +4604,7 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="122"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="8" t="s">
         <v>80</v>
       </c>
@@ -4397,7 +4616,7 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -4405,7 +4624,7 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="122"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="8" t="s">
         <v>81</v>
       </c>
@@ -4417,7 +4636,7 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -4425,7 +4644,7 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="136" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4447,7 +4666,7 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="122"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="8" t="s">
         <v>83</v>
       </c>
@@ -4467,7 +4686,7 @@
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="122"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="8" t="s">
         <v>84</v>
       </c>
@@ -4479,7 +4698,7 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="19" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -4487,7 +4706,7 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="122"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="8" t="s">
         <v>85</v>
       </c>
@@ -4507,7 +4726,7 @@
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="136" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4529,7 +4748,7 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="122"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="8" t="s">
         <v>87</v>
       </c>
@@ -4549,7 +4768,7 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="122"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="8" t="s">
         <v>88</v>
       </c>
@@ -4569,7 +4788,7 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="122"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="8" t="s">
         <v>89</v>
       </c>
@@ -4581,7 +4800,7 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="20" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -4589,7 +4808,7 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="136" t="s">
         <v>113</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4603,7 +4822,7 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -4611,7 +4830,7 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="122"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="8" t="s">
         <v>91</v>
       </c>
@@ -4621,7 +4840,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
       <c r="F27" s="19" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -4629,7 +4848,7 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="136" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4649,7 +4868,7 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="122"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="8" t="s">
         <v>93</v>
       </c>
@@ -4667,7 +4886,7 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="136" t="s">
         <v>115</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4681,7 +4900,7 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="19" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -4689,7 +4908,7 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="122"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="8" t="s">
         <v>95</v>
       </c>
@@ -4731,7 +4950,7 @@
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="136" t="s">
         <v>117</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4753,7 +4972,7 @@
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="122"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="8" t="s">
         <v>98</v>
       </c>
@@ -4773,7 +4992,7 @@
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="122"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="8" t="s">
         <v>99</v>
       </c>
@@ -4793,7 +5012,7 @@
       <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="136" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -4815,7 +5034,7 @@
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="122"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="8" t="s">
         <v>101</v>
       </c>
@@ -4827,7 +5046,7 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -4835,7 +5054,7 @@
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="136" t="s">
         <v>119</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -4857,7 +5076,7 @@
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="122"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="8" t="s">
         <v>103</v>
       </c>
@@ -4869,7 +5088,7 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="19" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -4877,7 +5096,7 @@
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="122"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="8" t="s">
         <v>104</v>
       </c>
@@ -4897,7 +5116,7 @@
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="122"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="8" t="s">
         <v>105</v>
       </c>
@@ -4915,7 +5134,7 @@
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="122"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="8" t="s">
         <v>106</v>
       </c>
@@ -4927,7 +5146,7 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -4935,7 +5154,7 @@
       <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="122"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="8" t="s">
         <v>107</v>
       </c>
@@ -4989,10 +5208,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -5006,7 +5225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -5038,11 +5257,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>428</v>
+      <c r="A2" s="137" t="s">
+        <v>423</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5052,17 +5271,19 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>650</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>680</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -5072,17 +5293,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>418</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -5092,19 +5315,21 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>419</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123" t="s">
-        <v>429</v>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="137" t="s">
+        <v>424</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -5114,17 +5339,19 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>420</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -5134,17 +5361,19 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>426</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>421</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -5154,17 +5383,19 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>422</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -5176,17 +5407,19 @@
       <c r="F8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="C9" s="86">
+        <v>417</v>
+      </c>
+      <c r="C9" s="85">
         <v>3</v>
       </c>
       <c r="D9" s="24">
@@ -5196,7 +5429,9 @@
       <c r="F9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>680</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="27"/>
@@ -5225,11 +5460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -5243,7 +5478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -5275,13 +5510,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
-        <v>445</v>
+      <c r="A2" s="87" t="s">
+        <v>440</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" s="89">
+        <v>425</v>
+      </c>
+      <c r="C2" s="88">
         <v>3</v>
       </c>
       <c r="D2" s="38">
@@ -5289,19 +5524,21 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="40"/>
+        <v>435</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>680</v>
+      </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123" t="s">
-        <v>446</v>
+      <c r="A3" s="137" t="s">
+        <v>441</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -5311,17 +5548,19 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>656</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>651</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -5331,17 +5570,19 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>436</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C5" s="64">
         <v>3</v>
@@ -5351,17 +5592,19 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" s="18"/>
+        <v>437</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C6" s="64">
         <v>3</v>
@@ -5371,17 +5614,19 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>657</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>652</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C7" s="64">
         <v>3</v>
@@ -5391,17 +5636,19 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>653</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C8" s="64">
         <v>3</v>
@@ -5411,19 +5658,21 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>443</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>438</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123" t="s">
-        <v>447</v>
+      <c r="A9" s="137" t="s">
+        <v>442</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -5433,17 +5682,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>439</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -5453,17 +5704,19 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>659</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>654</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -5473,9 +5726,11 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="72" t="s">
-        <v>660</v>
-      </c>
-      <c r="G11" s="25"/>
+        <v>655</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>680</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="27"/>
@@ -5504,11 +5759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -5522,7 +5777,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -5554,11 +5809,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>461</v>
+      <c r="A2" s="137" t="s">
+        <v>456</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5567,22 +5822,22 @@
         <v>841</v>
       </c>
       <c r="E2" s="59"/>
-      <c r="F2" s="130" t="s">
-        <v>456</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="129" t="s">
-        <v>689</v>
+      <c r="F2" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="127"/>
+      <c r="I2" s="124" t="s">
+        <v>682</v>
       </c>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -5592,21 +5847,21 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>685</v>
+        <v>452</v>
+      </c>
+      <c r="G3" s="123" t="s">
+        <v>680</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="128" t="s">
-        <v>690</v>
+      <c r="I3" s="125" t="s">
+        <v>683</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -5616,19 +5871,21 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>686</v>
+        <v>453</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>681</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="123" t="s">
+        <v>684</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -5638,21 +5895,21 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>685</v>
+        <v>454</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>680</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="126" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -5662,19 +5919,19 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="71" t="s">
-        <v>661</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>686</v>
+        <v>656</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>681</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -5684,7 +5941,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="71" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -5692,9 +5949,9 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -5704,7 +5961,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="71" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -5712,9 +5969,9 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -5724,7 +5981,7 @@
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="72" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -5737,7 +5994,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G9" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G7:G9" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5758,7 +6015,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -5772,7 +6029,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -5804,11 +6061,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>487</v>
+      <c r="A2" s="137" t="s">
+        <v>482</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -5818,7 +6075,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -5826,9 +6083,9 @@
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -5838,7 +6095,7 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -5846,9 +6103,9 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -5858,7 +6115,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5867,10 +6124,10 @@
     </row>
     <row r="5" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -5880,7 +6137,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -5888,11 +6145,11 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123" t="s">
-        <v>489</v>
+      <c r="A6" s="137" t="s">
+        <v>484</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -5902,7 +6159,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -5910,9 +6167,9 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -5922,7 +6179,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -5930,9 +6187,9 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -5942,7 +6199,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -5950,9 +6207,9 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -5962,7 +6219,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -5970,9 +6227,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -5982,7 +6239,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -5990,9 +6247,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C11" s="63">
         <v>2</v>
@@ -6002,7 +6259,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="71" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6010,11 +6267,11 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123" t="s">
-        <v>490</v>
+      <c r="A12" s="137" t="s">
+        <v>485</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -6024,7 +6281,7 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="71" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6032,9 +6289,9 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="57" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -6044,7 +6301,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="71" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6052,11 +6309,11 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123" t="s">
-        <v>491</v>
+      <c r="A14" s="137" t="s">
+        <v>486</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -6066,7 +6323,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="71" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6074,9 +6331,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="57" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -6086,7 +6343,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="71" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6095,10 +6352,10 @@
     </row>
     <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C16" s="65">
         <v>1</v>
@@ -6108,7 +6365,7 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="72" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -6142,23 +6399,23 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" style="68" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" style="15"/>
     <col min="6" max="6" width="84.44140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="15"/>
-    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="24.21875" style="15" customWidth="1"/>
     <col min="10" max="10" width="37.77734375" style="15" customWidth="1"/>
     <col min="11" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -6190,11 +6447,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>520</v>
+      <c r="A2" s="137" t="s">
+        <v>515</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -6204,7 +6461,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -6212,9 +6469,9 @@
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -6224,7 +6481,7 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -6232,9 +6489,9 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -6244,7 +6501,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -6252,9 +6509,9 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -6264,7 +6521,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -6272,9 +6529,9 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -6284,7 +6541,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -6292,11 +6549,11 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
-        <v>521</v>
+      <c r="A7" s="137" t="s">
+        <v>516</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -6306,7 +6563,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -6314,9 +6571,9 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -6326,7 +6583,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6334,9 +6591,9 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -6346,7 +6603,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -6354,9 +6611,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -6366,7 +6623,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -6374,9 +6631,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C11" s="63">
         <v>2</v>
@@ -6386,7 +6643,7 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6394,9 +6651,9 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C12" s="63">
         <v>2</v>
@@ -6406,7 +6663,7 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6414,11 +6671,11 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123" t="s">
-        <v>522</v>
+      <c r="A13" s="137" t="s">
+        <v>517</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -6428,7 +6685,7 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6436,9 +6693,9 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C14" s="63">
         <v>2</v>
@@ -6448,7 +6705,7 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6456,11 +6713,11 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
-        <v>523</v>
+      <c r="A15" s="137" t="s">
+        <v>518</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C15" s="63">
         <v>2</v>
@@ -6470,7 +6727,7 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6478,9 +6735,9 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -6490,7 +6747,7 @@
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="72" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -6523,11 +6780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="93" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="68" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" style="15"/>
@@ -6540,7 +6797,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="77" t="s">
@@ -6572,506 +6829,538 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="138" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="91">
+        <v>2</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="137"/>
+      <c r="B3" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="97">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98">
+        <v>120</v>
+      </c>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100" t="s">
+        <v>545</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+    </row>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="137"/>
+      <c r="B4" s="57" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="97">
+        <v>2</v>
+      </c>
+      <c r="D4" s="98">
+        <v>16</v>
+      </c>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100" t="s">
+        <v>546</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="137"/>
+      <c r="B5" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="97">
+        <v>2</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="137"/>
+      <c r="B6" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="103">
+        <v>3</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="137" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="92">
-        <v>2</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95" t="s">
+      <c r="C7" s="104">
+        <v>1</v>
+      </c>
+      <c r="D7" s="98">
+        <v>1026</v>
+      </c>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100" t="s">
+        <v>667</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="137"/>
+      <c r="B8" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" s="104">
+        <v>1</v>
+      </c>
+      <c r="D8" s="98">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-    </row>
-    <row r="3" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
-      <c r="B3" s="57" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="98">
-        <v>2</v>
-      </c>
-      <c r="D3" s="99">
-        <v>120</v>
-      </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101" t="s">
+      <c r="G8" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="137"/>
+      <c r="B9" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="104">
+        <v>1</v>
+      </c>
+      <c r="D9" s="98">
+        <v>829</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
-      <c r="B4" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="98">
-        <v>2</v>
-      </c>
-      <c r="D4" s="99">
+      <c r="G9" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="137"/>
+      <c r="B10" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="97">
+        <v>2</v>
+      </c>
+      <c r="D10" s="98">
+        <v>829</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="137"/>
+      <c r="B11" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="97">
+        <v>2</v>
+      </c>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100" t="s">
+        <v>669</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="137"/>
+      <c r="B12" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="97">
+        <v>2</v>
+      </c>
+      <c r="D12" s="98">
+        <v>265</v>
+      </c>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100" t="s">
+        <v>670</v>
+      </c>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="137" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" s="104">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98">
+        <v>209</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101" t="s">
-        <v>551</v>
-      </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
-      <c r="B5" s="57" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="98">
-        <v>2</v>
-      </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="137"/>
+      <c r="B14" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="C14" s="104">
+        <v>1</v>
+      </c>
+      <c r="D14" s="98">
+        <v>497</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100" t="s">
         <v>552</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
-      <c r="B6" s="57" t="s">
-        <v>528</v>
-      </c>
-      <c r="C6" s="104">
-        <v>3</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101" t="s">
+      <c r="G14" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="137"/>
+      <c r="B15" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="104">
+        <v>1</v>
+      </c>
+      <c r="D15" s="98">
+        <v>200</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
+    </row>
+    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="137" t="s">
+        <v>558</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="104">
+        <v>1</v>
+      </c>
+      <c r="D16" s="98">
+        <v>173</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100" t="s">
+        <v>671</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="137"/>
+      <c r="B17" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="C17" s="104">
+        <v>1</v>
+      </c>
+      <c r="D17" s="98">
+        <v>116</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100" t="s">
+        <v>672</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="137"/>
+      <c r="B18" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="C18" s="104">
+        <v>1</v>
+      </c>
+      <c r="D18" s="98">
+        <v>1021</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100" t="s">
+        <v>673</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="137"/>
+      <c r="B19" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="C19" s="104">
+        <v>1</v>
+      </c>
+      <c r="D19" s="98">
+        <v>116</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100" t="s">
+        <v>674</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="137"/>
+      <c r="B20" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="104">
+        <v>1</v>
+      </c>
+      <c r="D20" s="98">
+        <v>523</v>
+      </c>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100" t="s">
+        <v>675</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="137"/>
+      <c r="B21" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="104">
+        <v>1</v>
+      </c>
+      <c r="D21" s="98">
+        <v>116</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100" t="s">
         <v>553</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-    </row>
-    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="105">
-        <v>1</v>
-      </c>
-      <c r="D7" s="99">
-        <v>1026</v>
-      </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101" t="s">
-        <v>672</v>
-      </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
-      <c r="B8" s="57" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" s="105">
-        <v>1</v>
-      </c>
-      <c r="D8" s="99">
-        <v>1002</v>
-      </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101" t="s">
+      <c r="G21" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="22" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="137"/>
+      <c r="B22" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="104">
+        <v>1</v>
+      </c>
+      <c r="D22" s="98">
+        <v>346</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100" t="s">
+        <v>676</v>
+      </c>
+      <c r="G22" s="101" t="s">
+        <v>680</v>
+      </c>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="137" t="s">
+        <v>559</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="104">
+        <v>1</v>
+      </c>
+      <c r="D23" s="98">
+        <v>749</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100" t="s">
+        <v>677</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="137"/>
+      <c r="B24" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" s="104">
+        <v>1</v>
+      </c>
+      <c r="D24" s="98">
+        <v>346</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100" t="s">
         <v>554</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
-      <c r="B9" s="57" t="s">
-        <v>531</v>
-      </c>
-      <c r="C9" s="105">
-        <v>1</v>
-      </c>
-      <c r="D9" s="99">
-        <v>829</v>
-      </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
-    </row>
-    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
-      <c r="B10" s="57" t="s">
-        <v>532</v>
-      </c>
-      <c r="C10" s="98">
-        <v>2</v>
-      </c>
-      <c r="D10" s="99">
-        <v>829</v>
-      </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
-      <c r="B11" s="57" t="s">
-        <v>533</v>
-      </c>
-      <c r="C11" s="98">
-        <v>2</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101" t="s">
-        <v>674</v>
-      </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-    </row>
-    <row r="12" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
-      <c r="B12" s="57" t="s">
-        <v>534</v>
-      </c>
-      <c r="C12" s="98">
-        <v>2</v>
-      </c>
-      <c r="D12" s="99">
-        <v>265</v>
-      </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-    </row>
-    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" s="105">
-        <v>1</v>
-      </c>
-      <c r="D13" s="99">
-        <v>209</v>
-      </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101" t="s">
-        <v>556</v>
-      </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-    </row>
-    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
-      <c r="B14" s="57" t="s">
-        <v>536</v>
-      </c>
-      <c r="C14" s="105">
-        <v>1</v>
-      </c>
-      <c r="D14" s="99">
-        <v>497</v>
-      </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
-      <c r="B15" s="57" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" s="105">
-        <v>1</v>
-      </c>
-      <c r="D15" s="99">
-        <v>200</v>
-      </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
-    </row>
-    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123" t="s">
-        <v>563</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="C16" s="105">
-        <v>1</v>
-      </c>
-      <c r="D16" s="99">
-        <v>173</v>
-      </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101" t="s">
-        <v>676</v>
-      </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
-      <c r="B17" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="C17" s="105">
-        <v>1</v>
-      </c>
-      <c r="D17" s="99">
-        <v>116</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101" t="s">
-        <v>677</v>
-      </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
-      <c r="B18" s="57" t="s">
-        <v>540</v>
-      </c>
-      <c r="C18" s="105">
-        <v>1</v>
-      </c>
-      <c r="D18" s="99">
-        <v>1021</v>
-      </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101" t="s">
+      <c r="G24" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="137"/>
+      <c r="B25" s="57" t="s">
+        <v>542</v>
+      </c>
+      <c r="C25" s="104">
+        <v>1</v>
+      </c>
+      <c r="D25" s="98">
+        <v>346</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100" t="s">
         <v>678</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123"/>
-      <c r="B19" s="57" t="s">
-        <v>541</v>
-      </c>
-      <c r="C19" s="105">
-        <v>1</v>
-      </c>
-      <c r="D19" s="99">
-        <v>116</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101" t="s">
-        <v>679</v>
-      </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123"/>
-      <c r="B20" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="C20" s="105">
-        <v>1</v>
-      </c>
-      <c r="D20" s="99">
-        <v>523</v>
-      </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101" t="s">
+      <c r="G25" s="101" t="s">
         <v>680</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="123"/>
-      <c r="B21" s="57" t="s">
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="137"/>
+      <c r="B26" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="C21" s="105">
-        <v>1</v>
-      </c>
-      <c r="D21" s="99">
-        <v>116</v>
-      </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
-    </row>
-    <row r="22" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123"/>
-      <c r="B22" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="C22" s="105">
-        <v>1</v>
-      </c>
-      <c r="D22" s="99">
-        <v>346</v>
-      </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101" t="s">
-        <v>681</v>
-      </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-    </row>
-    <row r="23" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123" t="s">
-        <v>564</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="C23" s="105">
-        <v>1</v>
-      </c>
-      <c r="D23" s="99">
-        <v>749</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101" t="s">
-        <v>682</v>
-      </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="123"/>
-      <c r="B24" s="57" t="s">
-        <v>546</v>
-      </c>
-      <c r="C24" s="105">
-        <v>1</v>
-      </c>
-      <c r="D24" s="99">
-        <v>346</v>
-      </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101" t="s">
-        <v>559</v>
-      </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
-    </row>
-    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="123"/>
-      <c r="B25" s="57" t="s">
-        <v>547</v>
-      </c>
-      <c r="C25" s="105">
-        <v>1</v>
-      </c>
-      <c r="D25" s="99">
-        <v>346</v>
-      </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101" t="s">
-        <v>683</v>
-      </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123"/>
-      <c r="B26" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="C26" s="106">
-        <v>2</v>
-      </c>
-      <c r="D26" s="107">
+      <c r="C26" s="105">
+        <v>2</v>
+      </c>
+      <c r="D26" s="106">
         <v>306</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="111"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7100,9 +7389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="49.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.21875" style="1" customWidth="1"/>
@@ -7112,293 +7401,293 @@
     <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="120" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="119" t="s">
+      <c r="B1" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="113">
+      <c r="B2" s="112">
         <f>0+COUNTIF(Architecture!G2:G43,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C2" s="114">
+      <c r="C2" s="113">
         <f>COUNTIF(Architecture!G2:G43,"&lt;&gt;Not Applicable")</f>
         <v>42</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="114">
         <f t="shared" ref="D2:D16" si="0">(B2/C2)*100</f>
         <v>0</v>
       </c>
-      <c r="E2" s="116"/>
+      <c r="E2" s="115"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="112">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="113">
+        <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="114">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="115"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="112">
+        <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="113">
+        <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
+        <v>14</v>
+      </c>
+      <c r="D4" s="114">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="E4" s="115"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="112">
+        <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="113">
+        <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="114">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="115"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="112">
+        <f>COUNTIF('Input Validation'!G2:G31,"Valid")</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="113">
+        <f>COUNTIF('Input Validation'!G2:G31,"&lt;&gt;Not Applicable")</f>
+        <v>21</v>
+      </c>
+      <c r="D6" s="114">
+        <f t="shared" si="0"/>
+        <v>38.095238095238095</v>
+      </c>
+      <c r="E6" s="115"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="112">
+        <f>COUNTIF('Cryptography at Rest'!G2:G17,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="114">
-        <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>57</v>
-      </c>
-      <c r="D3" s="115">
+      <c r="C7" s="113">
+        <f>COUNTIF('Cryptography at Rest'!G2:G17,"&lt;&gt;Not Applicable")</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="113">
-        <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="112">
+        <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="113">
+        <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
+        <v>13</v>
+      </c>
+      <c r="D8" s="114">
+        <f t="shared" si="0"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="E8" s="115"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="112">
+        <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="113">
+        <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="114">
+        <f t="shared" si="0"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="E9" s="115"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="112">
+        <f>COUNTIF('Communication Security'!G2:G9,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="114">
-        <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>20</v>
-      </c>
-      <c r="D4" s="115">
+      <c r="C10" s="113">
+        <f>COUNTIF('Communication Security'!G2:G9,"&lt;&gt;Not Applicable")</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="116"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="113">
-        <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
+      <c r="E10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="112">
+        <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="113">
+        <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="114">
+        <f t="shared" si="0"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="E11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="112">
+        <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="114">
-        <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="115">
+      <c r="C12" s="113">
+        <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="116"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="113">
-        <f>COUNTIF('Input Validation'!G2:G31,"Valid")</f>
+      <c r="E12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="112">
+        <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="114">
-        <f>COUNTIF('Input Validation'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>29</v>
-      </c>
-      <c r="D6" s="115">
+      <c r="C13" s="113">
+        <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
+        <v>15</v>
+      </c>
+      <c r="D13" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="116"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="113">
-        <f>COUNTIF('Cryptography at Rest'!G2:G17,"Valid")</f>
+      <c r="E13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="112">
+        <f>COUNTIF('Web Services'!G2:G16,"Valid")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="114">
-        <f>COUNTIF('Cryptography at Rest'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="115">
+      <c r="C14" s="113">
+        <f>COUNTIF('Web Services'!G2:G16,"&lt;&gt;Not Applicable")</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="113">
-        <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="114">
-        <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
-      </c>
-      <c r="D8" s="115">
-        <f t="shared" si="0"/>
-        <v>15.384615384615385</v>
-      </c>
-      <c r="E8" s="116"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="113">
-        <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="114">
-        <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
-      </c>
-      <c r="D9" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="116"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="113">
-        <f>COUNTIF('Communication Security'!G2:G9,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="114">
-        <f>COUNTIF('Communication Security'!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="116"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="113">
-        <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="114">
-        <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
-      </c>
-      <c r="D11" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="116"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="113">
-        <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="114">
-        <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>6</v>
-      </c>
-      <c r="D12" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="116"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="113">
-        <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="114">
-        <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
-      </c>
-      <c r="D13" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="116"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="113">
-        <f>COUNTIF('Web Services'!G2:G16,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="114">
-        <f>COUNTIF('Web Services'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
-      </c>
-      <c r="D14" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="112">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="114">
+        <v>7</v>
+      </c>
+      <c r="C15" s="113">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
         <v>25</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="114">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="116"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="112">
         <f>SUM(B2:B15)</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="114">
+        <v>39</v>
+      </c>
+      <c r="C16" s="113">
         <f>SUM(C2:C15)</f>
-        <v>283</v>
-      </c>
-      <c r="D16" s="115">
+        <v>258</v>
+      </c>
+      <c r="D16" s="114">
         <f t="shared" si="0"/>
-        <v>0.70671378091872794</v>
-      </c>
-      <c r="E16" s="116"/>
+        <v>15.11627906976744</v>
+      </c>
+      <c r="E16" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7416,11 +7705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="49"/>
@@ -7466,8 +7755,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>231</v>
+      <c r="A2" s="137" t="s">
+        <v>726</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>120</v>
@@ -7481,16 +7770,22 @@
       <c r="E2" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>580</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="F2" s="135" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="35" t="s">
         <v>121</v>
       </c>
@@ -7503,16 +7798,22 @@
       <c r="E3" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="121" t="s">
+        <v>576</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="35" t="s">
         <v>122</v>
       </c>
@@ -7525,16 +7826,22 @@
       <c r="E4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="121" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="35" t="s">
         <v>123</v>
       </c>
@@ -7547,16 +7854,20 @@
       <c r="E5" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="121" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>689</v>
+      </c>
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="35" t="s">
         <v>124</v>
       </c>
@@ -7569,16 +7880,20 @@
       <c r="E6" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>691</v>
+      </c>
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="35" t="s">
         <v>125</v>
       </c>
@@ -7591,16 +7906,22 @@
       <c r="E7" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="G7" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="35" t="s">
         <v>126</v>
       </c>
@@ -7613,16 +7934,22 @@
       <c r="E8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="121" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="35" t="s">
         <v>127</v>
       </c>
@@ -7635,16 +7962,22 @@
       <c r="E9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="35" t="s">
         <v>128</v>
       </c>
@@ -7657,16 +7990,20 @@
       <c r="E10" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="121" t="s">
+        <v>580</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>693</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="35" t="s">
         <v>129</v>
       </c>
@@ -7679,16 +8016,20 @@
       <c r="E11" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>695</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="137"/>
       <c r="B12" s="35" t="s">
         <v>130</v>
       </c>
@@ -7701,16 +8042,20 @@
       <c r="E12" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>694</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="35" t="s">
         <v>131</v>
       </c>
@@ -7723,17 +8068,21 @@
       <c r="E13" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="121" t="s">
+        <v>581</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>696</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123" t="s">
-        <v>232</v>
+      <c r="A14" s="137" t="s">
+        <v>231</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>132</v>
@@ -7750,13 +8099,17 @@
       <c r="F14" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>689</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="35" t="s">
         <v>133</v>
       </c>
@@ -7772,13 +8125,15 @@
       <c r="F15" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="35" t="s">
         <v>134</v>
       </c>
@@ -7792,13 +8147,15 @@
       <c r="F16" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="35" t="s">
         <v>135</v>
       </c>
@@ -7820,7 +8177,7 @@
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="35" t="s">
         <v>136</v>
       </c>
@@ -7834,7 +8191,7 @@
         <v>182</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="20"/>
@@ -7842,7 +8199,7 @@
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="35" t="s">
         <v>137</v>
       </c>
@@ -7856,7 +8213,7 @@
         <v>183</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="20"/>
@@ -7864,7 +8221,7 @@
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="35" t="s">
         <v>138</v>
       </c>
@@ -7886,8 +8243,8 @@
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="123" t="s">
-        <v>233</v>
+      <c r="A21" s="137" t="s">
+        <v>232</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>139</v>
@@ -7904,13 +8261,17 @@
       <c r="F21" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>697</v>
+      </c>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="35" t="s">
         <v>140</v>
       </c>
@@ -7932,7 +8293,7 @@
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="35" t="s">
         <v>141</v>
       </c>
@@ -7954,8 +8315,8 @@
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="123" t="s">
-        <v>234</v>
+      <c r="A24" s="137" t="s">
+        <v>233</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>142</v>
@@ -7970,7 +8331,7 @@
         <v>178</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="20"/>
@@ -7978,7 +8339,7 @@
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="123"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="35" t="s">
         <v>143</v>
       </c>
@@ -7992,7 +8353,7 @@
         <v>178</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="20"/>
@@ -8000,7 +8361,7 @@
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="35" t="s">
         <v>144</v>
       </c>
@@ -8014,7 +8375,7 @@
         <v>178</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="20"/>
@@ -8022,7 +8383,7 @@
       <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="123"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="35" t="s">
         <v>145</v>
       </c>
@@ -8036,7 +8397,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="20"/>
@@ -8044,7 +8405,7 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="123"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="35" t="s">
         <v>146</v>
       </c>
@@ -8066,8 +8427,8 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="123" t="s">
-        <v>235</v>
+      <c r="A29" s="137" t="s">
+        <v>234</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>147</v>
@@ -8082,15 +8443,17 @@
         <v>178</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>588</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="123"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="35" t="s">
         <v>148</v>
       </c>
@@ -8106,13 +8469,15 @@
       <c r="F30" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="123"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="35" t="s">
         <v>149</v>
       </c>
@@ -8126,15 +8491,21 @@
         <v>178</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+        <v>589</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="123"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="35" t="s">
         <v>150</v>
       </c>
@@ -8150,13 +8521,15 @@
       <c r="F32" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="123"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="35" t="s">
         <v>151</v>
       </c>
@@ -8172,13 +8545,15 @@
       <c r="F33" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="123"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="35" t="s">
         <v>152</v>
       </c>
@@ -8192,15 +8567,17 @@
         <v>178</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="G34" s="18"/>
+        <v>590</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="123"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="35" t="s">
         <v>153</v>
       </c>
@@ -8222,8 +8599,8 @@
       <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="123" t="s">
-        <v>236</v>
+      <c r="A36" s="137" t="s">
+        <v>235</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>154</v>
@@ -8246,7 +8623,7 @@
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="123"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="35" t="s">
         <v>155</v>
       </c>
@@ -8268,7 +8645,7 @@
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="123"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="35" t="s">
         <v>156</v>
       </c>
@@ -8290,8 +8667,8 @@
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="123" t="s">
-        <v>237</v>
+      <c r="A39" s="137" t="s">
+        <v>236</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>157</v>
@@ -8308,13 +8685,15 @@
       <c r="F39" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="123"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="35" t="s">
         <v>158</v>
       </c>
@@ -8330,13 +8709,15 @@
       <c r="F40" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="123"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="35" t="s">
         <v>159</v>
       </c>
@@ -8352,13 +8733,15 @@
       <c r="F41" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="123"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="35" t="s">
         <v>160</v>
       </c>
@@ -8374,13 +8757,15 @@
       <c r="F42" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="123"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="35" t="s">
         <v>161</v>
       </c>
@@ -8402,7 +8787,7 @@
       <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="123"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="35" t="s">
         <v>162</v>
       </c>
@@ -8424,8 +8809,8 @@
       <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="123" t="s">
-        <v>238</v>
+      <c r="A45" s="137" t="s">
+        <v>237</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>163</v>
@@ -8442,13 +8827,15 @@
       <c r="F45" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="123"/>
+      <c r="A46" s="137"/>
       <c r="B46" s="35" t="s">
         <v>164</v>
       </c>
@@ -8470,7 +8857,7 @@
       <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="123"/>
+      <c r="A47" s="137"/>
       <c r="B47" s="35" t="s">
         <v>165</v>
       </c>
@@ -8484,7 +8871,7 @@
         <v>191</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -8492,7 +8879,7 @@
       <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="123"/>
+      <c r="A48" s="137"/>
       <c r="B48" s="35" t="s">
         <v>166</v>
       </c>
@@ -8514,7 +8901,7 @@
       <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="123"/>
+      <c r="A49" s="137"/>
       <c r="B49" s="35" t="s">
         <v>167</v>
       </c>
@@ -8528,7 +8915,7 @@
         <v>192</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -8536,7 +8923,7 @@
       <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="123"/>
+      <c r="A50" s="137"/>
       <c r="B50" s="35" t="s">
         <v>168</v>
       </c>
@@ -8550,7 +8937,7 @@
         <v>193</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -8558,7 +8945,7 @@
       <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10" s="15" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="123"/>
+      <c r="A51" s="137"/>
       <c r="B51" s="35" t="s">
         <v>169</v>
       </c>
@@ -8580,8 +8967,8 @@
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="123" t="s">
-        <v>239</v>
+      <c r="A52" s="137" t="s">
+        <v>238</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>170</v>
@@ -8596,7 +8983,7 @@
         <v>195</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -8604,7 +8991,7 @@
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
+      <c r="A53" s="137"/>
       <c r="B53" s="35" t="s">
         <v>171</v>
       </c>
@@ -8626,7 +9013,7 @@
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" s="15" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="123"/>
+      <c r="A54" s="137"/>
       <c r="B54" s="35" t="s">
         <v>172</v>
       </c>
@@ -8648,8 +9035,8 @@
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="123" t="s">
-        <v>240</v>
+      <c r="A55" s="137" t="s">
+        <v>239</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>173</v>
@@ -8664,7 +9051,7 @@
         <v>196</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -8672,7 +9059,7 @@
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="123"/>
+      <c r="A56" s="137"/>
       <c r="B56" s="35" t="s">
         <v>174</v>
       </c>
@@ -8686,7 +9073,7 @@
         <v>196</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -8694,7 +9081,7 @@
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" s="15" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="123"/>
+      <c r="A57" s="137"/>
       <c r="B57" s="35" t="s">
         <v>175</v>
       </c>
@@ -8716,7 +9103,7 @@
       <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" s="15" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="123"/>
+      <c r="A58" s="137"/>
       <c r="B58" s="35" t="s">
         <v>176</v>
       </c>
@@ -8728,7 +9115,7 @@
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="26" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -8756,6 +9143,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8767,17 +9155,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="56" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
     <col min="3" max="5" width="8.77734375" style="67" customWidth="1"/>
     <col min="6" max="6" width="70" style="15" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="15"/>
+    <col min="7" max="7" width="21.21875" style="15" customWidth="1"/>
     <col min="8" max="8" width="29" style="15" customWidth="1"/>
     <col min="9" max="9" width="35.77734375" style="15" customWidth="1"/>
     <col min="10" max="10" width="42.77734375" style="15" customWidth="1"/>
@@ -8818,10 +9206,10 @@
     </row>
     <row r="2" spans="1:10" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -8831,19 +9219,25 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+        <v>260</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123" t="s">
-        <v>274</v>
+      <c r="A3" s="137" t="s">
+        <v>728</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -8855,17 +9249,23 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -8877,17 +9277,23 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+        <v>262</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -8899,17 +9305,23 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -8921,7 +9333,7 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -8929,11 +9341,11 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
-        <v>275</v>
+      <c r="A7" s="137" t="s">
+        <v>727</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -8944,18 +9356,22 @@
       <c r="E7" s="62">
         <v>7.1</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>699</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -8966,18 +9382,22 @@
       <c r="E8" s="62">
         <v>7.2</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="G8" s="18"/>
+      <c r="F8" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="41" t="s">
+        <v>690</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="63">
         <v>2</v>
@@ -8987,7 +9407,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="19" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -8995,9 +9415,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -9009,7 +9429,7 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -9017,11 +9437,11 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123" t="s">
-        <v>276</v>
+      <c r="A11" s="137" t="s">
+        <v>273</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="61">
         <v>1</v>
@@ -9030,20 +9450,24 @@
         <v>614</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>602</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>700</v>
+      </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -9052,20 +9476,24 @@
         <v>1004</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>603</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>700</v>
+      </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -9074,20 +9502,22 @@
         <v>16</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>604</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -9096,20 +9526,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="18"/>
+        <v>265</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -9118,22 +9550,24 @@
         <v>16</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>605</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123" t="s">
-        <v>277</v>
+      <c r="A16" s="137" t="s">
+        <v>274</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -9142,10 +9576,10 @@
         <v>290</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -9153,9 +9587,9 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="63">
         <v>2</v>
@@ -9165,7 +9599,7 @@
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -9173,9 +9607,9 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="63">
         <v>2</v>
@@ -9185,7 +9619,7 @@
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -9193,11 +9627,11 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123" t="s">
-        <v>278</v>
+      <c r="A19" s="137" t="s">
+        <v>275</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="64">
         <v>3</v>
@@ -9206,10 +9640,10 @@
         <v>613</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -9217,9 +9651,9 @@
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="64">
         <v>3</v>
@@ -9228,10 +9662,10 @@
         <v>613</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -9240,10 +9674,10 @@
     </row>
     <row r="21" spans="1:10" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="65">
         <v>1</v>
@@ -9253,11 +9687,15 @@
       </c>
       <c r="E21" s="66"/>
       <c r="F21" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G21" s="25"/>
+        <v>268</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>680</v>
+      </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="18" t="s">
+        <v>701</v>
+      </c>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -9302,11 +9740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.77734375" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="7"/>
@@ -9352,11 +9790,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>293</v>
+      <c r="A2" s="137" t="s">
+        <v>290</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -9366,17 +9804,23 @@
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+        <v>287</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>703</v>
+      </c>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -9388,15 +9832,17 @@
       <c r="F3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -9406,17 +9852,23 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+        <v>609</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>704</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="53" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -9426,17 +9878,21 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+        <v>610</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>705</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -9446,19 +9902,23 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>611</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>706</v>
+      </c>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
-        <v>294</v>
+      <c r="A7" s="137" t="s">
+        <v>291</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C7" s="61">
         <v>1</v>
@@ -9468,17 +9928,19 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>612</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="53" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -9488,19 +9950,23 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>288</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>707</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123" t="s">
-        <v>295</v>
+      <c r="A9" s="137" t="s">
+        <v>292</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -9510,17 +9976,21 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>289</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>708</v>
+      </c>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -9532,15 +10002,17 @@
       <c r="F10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -9582,11 +10054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -9632,11 +10104,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>333</v>
+      <c r="A2" s="137" t="s">
+        <v>330</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C2" s="58">
         <v>1</v>
@@ -9646,19 +10118,23 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+        <v>680</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>709</v>
+      </c>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C3" s="61">
         <v>1</v>
@@ -9668,19 +10144,23 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>680</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>711</v>
+      </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -9690,19 +10170,21 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H4" s="18"/>
+        <v>680</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>710</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -9712,19 +10194,19 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="61">
         <v>1</v>
@@ -9734,18 +10216,18 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
-        <v>334</v>
+      <c r="A7" s="137" t="s">
+        <v>331</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>193</v>
@@ -9758,19 +10240,19 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -9780,15 +10262,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+        <v>319</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>712</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
         <v>194</v>
       </c>
@@ -9800,17 +10286,19 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -9820,15 +10308,17 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
         <v>181</v>
       </c>
@@ -9840,15 +10330,19 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+        <v>322</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>713</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="57" t="s">
         <v>182</v>
       </c>
@@ -9860,17 +10354,19 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>623</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>618</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="57" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -9880,15 +10376,23 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>624</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="22"/>
+        <v>619</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
         <v>183</v>
       </c>
@@ -9900,19 +10404,21 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
-        <v>335</v>
+      <c r="A15" s="137" t="s">
+        <v>332</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" s="61">
         <v>1</v>
@@ -9922,17 +10428,21 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>625</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>620</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>717</v>
+      </c>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="57" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="61">
         <v>1</v>
@@ -9942,17 +10452,23 @@
       </c>
       <c r="E16" s="62"/>
       <c r="F16" s="71" t="s">
-        <v>626</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+        <v>621</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>719</v>
+      </c>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" s="61">
         <v>1</v>
@@ -9962,17 +10478,19 @@
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>622</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="137"/>
       <c r="B18" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" s="61">
         <v>1</v>
@@ -9982,17 +10500,21 @@
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="71" t="s">
-        <v>628</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+        <v>623</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>720</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C19" s="61">
         <v>1</v>
@@ -10002,17 +10524,19 @@
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="71" t="s">
-        <v>629</v>
-      </c>
-      <c r="G19" s="18"/>
+        <v>624</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="61">
         <v>1</v>
@@ -10022,17 +10546,25 @@
       </c>
       <c r="E20" s="62"/>
       <c r="F20" s="71" t="s">
-        <v>630</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="22"/>
+        <v>625</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="123"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C21" s="61">
         <v>1</v>
@@ -10042,17 +10574,21 @@
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="71" t="s">
-        <v>631</v>
-      </c>
-      <c r="G21" s="18"/>
+        <v>626</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>721</v>
+      </c>
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="57" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22" s="61">
         <v>1</v>
@@ -10062,17 +10598,19 @@
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="71" t="s">
-        <v>632</v>
-      </c>
-      <c r="G22" s="18"/>
+        <v>627</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="57" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="61">
         <v>1</v>
@@ -10082,17 +10620,19 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="18"/>
+        <v>324</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="123"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C24" s="61">
         <v>1</v>
@@ -10102,19 +10642,23 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="71" t="s">
-        <v>633</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>628</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>722</v>
+      </c>
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="123" t="s">
-        <v>336</v>
+      <c r="A25" s="137" t="s">
+        <v>333</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25" s="63">
         <v>2</v>
@@ -10124,7 +10668,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="71" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -10132,9 +10676,9 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="57" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26" s="63">
         <v>2</v>
@@ -10144,7 +10688,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="71" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -10152,9 +10696,9 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="123"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="63">
         <v>2</v>
@@ -10164,7 +10708,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="71" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -10172,11 +10716,11 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="123" t="s">
-        <v>337</v>
+      <c r="A28" s="137" t="s">
+        <v>334</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="61">
         <v>1</v>
@@ -10186,17 +10730,21 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="71" t="s">
-        <v>634</v>
-      </c>
-      <c r="G28" s="18"/>
+        <v>629</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>723</v>
+      </c>
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="123"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="61">
         <v>1</v>
@@ -10206,17 +10754,21 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="71" t="s">
-        <v>635</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>630</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18" t="s">
+        <v>724</v>
+      </c>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="123"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="57" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30" s="61">
         <v>1</v>
@@ -10226,17 +10778,19 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="G30" s="18"/>
+        <v>328</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="123"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31" s="65">
         <v>1</v>
@@ -10246,11 +10800,15 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="G31" s="25"/>
+        <v>329</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="25" t="s">
+        <v>725</v>
+      </c>
       <c r="J31" s="27"/>
     </row>
   </sheetData>
@@ -10277,14 +10835,427 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="15"/>
+    <col min="3" max="5" width="8.77734375" style="67"/>
+    <col min="6" max="6" width="80.21875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="31" style="15" customWidth="1"/>
+    <col min="9" max="9" width="24" style="15" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="78" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="79">
+        <v>1</v>
+      </c>
+      <c r="D2" s="80">
+        <v>532</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="129" t="s">
+        <v>684</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>686</v>
+      </c>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="137"/>
+      <c r="B3" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="61">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>532</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="G3" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>686</v>
+      </c>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="137"/>
+      <c r="B4" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="63">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>778</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>679</v>
+      </c>
+      <c r="I4" s="132" t="s">
+        <v>684</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="137"/>
+      <c r="B5" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>778</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H5" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I5" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="137" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>778</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H6" s="131" t="s">
+        <v>687</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="137"/>
+      <c r="B7" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="63">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>285</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H7" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I7" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="63">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>117</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="71" t="s">
+        <v>641</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="137"/>
+      <c r="B9" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>117</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="71" t="s">
+        <v>642</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="137"/>
+      <c r="B10" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="63">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>200</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="137"/>
+      <c r="B11" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="63">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H11" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I11" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="61">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>210</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="71" t="s">
+        <v>645</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I12" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="137"/>
+      <c r="B13" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="63">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17">
+        <v>544</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="71" t="s">
+        <v>646</v>
+      </c>
+      <c r="G13" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="I13" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="137"/>
+      <c r="B14" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="69">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24">
+        <v>431</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="72" t="s">
+        <v>647</v>
+      </c>
+      <c r="G14" s="133" t="s">
+        <v>680</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>684</v>
+      </c>
+      <c r="I14" s="134" t="s">
+        <v>684</v>
+      </c>
+      <c r="J14" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="68" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="15"/>
@@ -10330,11 +11301,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>362</v>
+      <c r="A2" s="137" t="s">
+        <v>359</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C2" s="73">
         <v>2</v>
@@ -10344,7 +11315,7 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -10352,9 +11323,9 @@
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -10364,7 +11335,7 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -10372,7 +11343,7 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
         <v>186</v>
       </c>
@@ -10384,7 +11355,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="71" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -10392,11 +11363,11 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123" t="s">
-        <v>363</v>
+      <c r="A5" s="137" t="s">
+        <v>360</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" s="61">
         <v>1</v>
@@ -10406,7 +11377,7 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -10414,9 +11385,9 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -10426,7 +11397,7 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -10434,9 +11405,9 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" s="63">
         <v>2</v>
@@ -10446,7 +11417,7 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -10454,9 +11425,9 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C8" s="63">
         <v>2</v>
@@ -10466,7 +11437,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -10474,9 +11445,9 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C9" s="63">
         <v>2</v>
@@ -10486,7 +11457,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -10494,9 +11465,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C10" s="63">
         <v>2</v>
@@ -10506,7 +11477,7 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -10514,9 +11485,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C11" s="64">
         <v>3</v>
@@ -10526,7 +11497,7 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -10534,9 +11505,9 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C12" s="64">
         <v>3</v>
@@ -10546,7 +11517,7 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -10554,11 +11525,11 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123" t="s">
-        <v>364</v>
+      <c r="A13" s="137" t="s">
+        <v>361</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" s="63">
         <v>2</v>
@@ -10568,7 +11539,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="71" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -10576,9 +11547,9 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C14" s="63">
         <v>2</v>
@@ -10588,7 +11559,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="71" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -10596,9 +11567,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C15" s="64">
         <v>3</v>
@@ -10616,11 +11587,11 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123" t="s">
-        <v>365</v>
+      <c r="A16" s="137" t="s">
+        <v>362</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -10630,7 +11601,7 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="71" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -10638,9 +11609,9 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -10650,7 +11621,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="72" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -10679,404 +11650,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="21.21875" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="15"/>
-    <col min="3" max="5" width="8.77734375" style="67"/>
-    <col min="6" max="6" width="80.21875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="31" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="35.21875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="78" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" s="80">
-        <v>532</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82" t="s">
-        <v>642</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="125" t="s">
-        <v>688</v>
-      </c>
-      <c r="J2" s="84"/>
-    </row>
-    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
-      <c r="B3" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="61">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>532</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="71" t="s">
-        <v>643</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="126" t="s">
-        <v>688</v>
-      </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
-      <c r="B4" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="63">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17">
-        <v>778</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="71" t="s">
-        <v>644</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
-      <c r="B5" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="63">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17">
-        <v>778</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="71" t="s">
-        <v>645</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="63">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>778</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
-      <c r="B7" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="63">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>285</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="63">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>117</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="71" t="s">
-        <v>646</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
-      <c r="B9" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="63">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>117</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="71" t="s">
-        <v>647</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
-      <c r="B10" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="63">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17">
-        <v>200</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
-      <c r="B11" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="63">
-        <v>2</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="71" t="s">
-        <v>649</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123" t="s">
-        <v>381</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="61">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>210</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="71" t="s">
-        <v>650</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
-      <c r="B13" s="57" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="63">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17">
-        <v>544</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="71" t="s">
-        <v>651</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
-      <c r="B14" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" s="69">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24">
-        <v>431</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="72" t="s">
-        <v>652</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G14" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"Valid,Non-valid,Not Applicable"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="15"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.77734375" style="67"/>
     <col min="6" max="6" width="93" style="15" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="15"/>
+    <col min="7" max="7" width="27.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="34.44140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="34" style="15" customWidth="1"/>
     <col min="10" max="10" width="30.77734375" style="15" customWidth="1"/>
     <col min="11" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="33" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -11108,11 +11704,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123" t="s">
-        <v>412</v>
+      <c r="A2" s="137" t="s">
+        <v>409</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C2" s="73">
         <v>2</v>
@@ -11122,17 +11718,23 @@
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+        <v>396</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I2" s="140" t="s">
+        <v>729</v>
+      </c>
       <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="57" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
@@ -11142,17 +11744,23 @@
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>397</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I3" s="140" t="s">
+        <v>729</v>
+      </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C4" s="63">
         <v>2</v>
@@ -11164,15 +11772,19 @@
       <c r="F4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="140" t="s">
+        <v>729</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
@@ -11182,17 +11794,23 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+        <v>398</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I5" s="140" t="s">
+        <v>729</v>
+      </c>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" s="64">
         <v>3</v>
@@ -11202,17 +11820,19 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>399</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C7" s="64">
         <v>3</v>
@@ -11222,19 +11842,21 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" s="18"/>
+        <v>400</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>681</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>388</v>
+      <c r="A8" s="137" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>385</v>
       </c>
       <c r="C8" s="61">
         <v>1</v>
@@ -11244,17 +11866,19 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+        <v>401</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="139"/>
       <c r="I8" s="18"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -11264,7 +11888,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="71" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -11272,9 +11896,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C10" s="61">
         <v>1</v>
@@ -11284,19 +11908,23 @@
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+        <v>402</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H10" s="139" t="s">
+        <v>732</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>391</v>
+      <c r="A11" s="137" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" s="141" t="s">
+        <v>388</v>
       </c>
       <c r="C11" s="61">
         <v>1</v>
@@ -11306,17 +11934,19 @@
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>403</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
-      <c r="B12" s="57" t="s">
-        <v>392</v>
+      <c r="A12" s="137"/>
+      <c r="B12" s="141" t="s">
+        <v>389</v>
       </c>
       <c r="C12" s="61">
         <v>1</v>
@@ -11326,17 +11956,23 @@
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+        <v>404</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>733</v>
+      </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C13" s="61">
         <v>1</v>
@@ -11346,17 +11982,23 @@
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+        <v>405</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>733</v>
+      </c>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C14" s="61">
         <v>1</v>
@@ -11366,17 +12008,19 @@
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="71" t="s">
-        <v>653</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+        <v>648</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="H14" s="139"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="137"/>
       <c r="B15" s="57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C15" s="63">
         <v>2</v>
@@ -11386,17 +12030,23 @@
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+        <v>406</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>736</v>
+      </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
+    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="137"/>
       <c r="B16" s="57" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C16" s="63">
         <v>2</v>
@@ -11406,17 +12056,23 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+        <v>407</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H16" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I16" s="142" t="s">
+        <v>736</v>
+      </c>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="57" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C17" s="63">
         <v>2</v>
@@ -11426,17 +12082,17 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="71" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="137"/>
       <c r="B18" s="57" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C18" s="69">
         <v>2</v>
@@ -11446,11 +12102,17 @@
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="72" t="s">
-        <v>411</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+        <v>408</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="H18" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="I18" s="142" t="s">
+        <v>736</v>
+      </c>
       <c r="J18" s="27"/>
     </row>
   </sheetData>
